--- a/REGULAR/ACCOUNTING/MENDOZA, NORA A..xlsx
+++ b/REGULAR/ACCOUNTING/MENDOZA, NORA A..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A730165A-6D32-4F58-8E36-5B6AFAE1B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1420,12 +1421,24 @@
   </si>
   <si>
     <t>7/10,22/2023</t>
+  </si>
+  <si>
+    <t>9/27-29/2023</t>
+  </si>
+  <si>
+    <t>10/26,27/2023</t>
+  </si>
+  <si>
+    <t>11/20,28/2023</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2288,7 +2301,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2344,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2408,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2468,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2534,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2597,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2695,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2754,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2819,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2862,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +2937,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3123,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3189,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3247,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3313,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,7 +3369,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,7 +3444,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +3487,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3553,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3609,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3707,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,7 +3770,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3819,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3823,26 +3836,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K742" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K742"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K745" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K745" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3854,13 +3867,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3869,14 +3882,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4180,7 +4193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4190,7 +4203,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4198,34 +4211,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K742"/>
+  <dimension ref="A2:K745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A691" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A701" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K707" sqref="K707"/>
+      <selection pane="bottomLeft" activeCell="C708" sqref="C708"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4246,7 +4259,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4266,7 +4279,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4288,7 +4301,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4296,7 +4309,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4309,7 +4322,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4326,7 +4339,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4385,7 +4398,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4407,7 +4420,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -4427,7 +4440,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35096</v>
       </c>
@@ -4447,7 +4460,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35125</v>
       </c>
@@ -4467,7 +4480,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35156</v>
       </c>
@@ -4487,7 +4500,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35186</v>
       </c>
@@ -4511,7 +4524,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35217</v>
       </c>
@@ -4535,7 +4548,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35247</v>
       </c>
@@ -4559,7 +4572,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35278</v>
       </c>
@@ -4583,7 +4596,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35309</v>
       </c>
@@ -4603,7 +4616,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35339</v>
       </c>
@@ -4623,7 +4636,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35370</v>
       </c>
@@ -4643,7 +4656,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35400</v>
       </c>
@@ -4663,7 +4676,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -4685,7 +4698,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35431</v>
       </c>
@@ -4705,7 +4718,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35462</v>
       </c>
@@ -4725,7 +4738,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>35490</v>
       </c>
@@ -4745,7 +4758,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>35521</v>
       </c>
@@ -4765,7 +4778,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35551</v>
       </c>
@@ -4785,7 +4798,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35582</v>
       </c>
@@ -4811,7 +4824,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>35612</v>
       </c>
@@ -4835,7 +4848,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>35643</v>
       </c>
@@ -4859,7 +4872,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35674</v>
       </c>
@@ -4879,7 +4892,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>35704</v>
       </c>
@@ -4901,7 +4914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>35735</v>
       </c>
@@ -4925,7 +4938,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>35765</v>
       </c>
@@ -4951,7 +4964,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4973,7 +4986,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>35796</v>
       </c>
@@ -4999,7 +5012,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35827</v>
       </c>
@@ -5025,7 +5038,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>35855</v>
       </c>
@@ -5049,7 +5062,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35886</v>
       </c>
@@ -5071,7 +5084,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>35916</v>
       </c>
@@ -5095,7 +5108,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>35947</v>
       </c>
@@ -5119,7 +5132,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>35977</v>
       </c>
@@ -5145,7 +5158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>59</v>
@@ -5167,7 +5180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36008</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -5213,7 +5226,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -5233,7 +5246,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36039</v>
       </c>
@@ -5257,7 +5270,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36069</v>
       </c>
@@ -5283,7 +5296,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -5305,7 +5318,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>63</v>
@@ -5325,7 +5338,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36100</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5373,7 +5386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>66</v>
@@ -5395,7 +5408,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36130</v>
       </c>
@@ -5421,7 +5434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>67</v>
@@ -5443,7 +5456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>46</v>
       </c>
@@ -5465,7 +5478,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36161</v>
       </c>
@@ -5489,7 +5502,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36192</v>
       </c>
@@ -5515,7 +5528,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>73</v>
@@ -5535,7 +5548,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36220</v>
       </c>
@@ -5557,7 +5570,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36251</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5605,7 +5618,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>74</v>
@@ -5627,7 +5640,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36281</v>
       </c>
@@ -5653,7 +5666,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5675,7 +5688,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>75</v>
@@ -5695,7 +5708,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36312</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -5743,7 +5756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36342</v>
       </c>
@@ -5769,7 +5782,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>80</v>
@@ -5791,7 +5804,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36373</v>
       </c>
@@ -5817,7 +5830,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -5839,7 +5852,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>53</v>
@@ -5861,7 +5874,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5881,7 +5894,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36404</v>
       </c>
@@ -5907,7 +5920,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>53</v>
@@ -5929,7 +5942,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>82</v>
@@ -5949,7 +5962,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36434</v>
       </c>
@@ -5975,7 +5988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>86</v>
@@ -5997,7 +6010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>53</v>
@@ -6019,7 +6032,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -6045,7 +6058,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -6065,7 +6078,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -6091,7 +6104,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -6113,7 +6126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>53</v>
@@ -6135,7 +6148,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>85</v>
@@ -6157,7 +6170,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -6179,7 +6192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -6201,7 +6214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>49</v>
       </c>
@@ -6223,7 +6236,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36526</v>
       </c>
@@ -6249,7 +6262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>52</v>
@@ -6271,7 +6284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>95</v>
@@ -6293,7 +6306,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36557</v>
       </c>
@@ -6319,7 +6332,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>96</v>
@@ -6341,7 +6354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>97</v>
@@ -6361,7 +6374,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36586</v>
       </c>
@@ -6387,7 +6400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>52</v>
@@ -6409,7 +6422,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>98</v>
@@ -6429,7 +6442,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36617</v>
       </c>
@@ -6455,7 +6468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>36647</v>
       </c>
@@ -6481,7 +6494,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6503,7 +6516,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>106</v>
@@ -6523,7 +6536,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36678</v>
       </c>
@@ -6547,7 +6560,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36708</v>
       </c>
@@ -6571,7 +6584,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36739</v>
       </c>
@@ -6595,7 +6608,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36770</v>
       </c>
@@ -6621,7 +6634,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>85</v>
@@ -6643,7 +6656,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>95</v>
@@ -6663,7 +6676,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>36800</v>
       </c>
@@ -6689,7 +6702,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>110</v>
@@ -6709,7 +6722,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36831</v>
       </c>
@@ -6735,7 +6748,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -6755,7 +6768,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>111</v>
@@ -6775,7 +6788,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>36861</v>
       </c>
@@ -6801,7 +6814,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>86</v>
@@ -6823,7 +6836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -6845,7 +6858,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>112</v>
@@ -6867,7 +6880,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>48</v>
       </c>
@@ -6889,7 +6902,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -6915,7 +6928,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>117</v>
@@ -6935,7 +6948,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>36923</v>
       </c>
@@ -6961,7 +6974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>118</v>
@@ -6981,7 +6994,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>36951</v>
       </c>
@@ -7007,7 +7020,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>57</v>
@@ -7029,7 +7042,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>126</v>
@@ -7051,7 +7064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>36982</v>
       </c>
@@ -7079,7 +7092,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>120</v>
@@ -7101,7 +7114,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>53</v>
@@ -7123,7 +7136,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>121</v>
@@ -7143,7 +7156,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37012</v>
       </c>
@@ -7171,7 +7184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>120</v>
@@ -7193,7 +7206,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>123</v>
@@ -7213,7 +7226,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37043</v>
       </c>
@@ -7239,7 +7252,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>119</v>
@@ -7263,7 +7276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>124</v>
@@ -7285,7 +7298,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37073</v>
       </c>
@@ -7311,7 +7324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -7333,7 +7346,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>122</v>
@@ -7353,7 +7366,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>127</v>
@@ -7373,7 +7386,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37104</v>
       </c>
@@ -7399,7 +7412,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>53</v>
@@ -7419,7 +7432,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7441,7 +7454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -7461,7 +7474,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37135</v>
       </c>
@@ -7487,7 +7500,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -7511,7 +7524,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>87</v>
@@ -7531,7 +7544,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>37165</v>
       </c>
@@ -7559,7 +7572,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>86</v>
@@ -7581,7 +7594,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>130</v>
@@ -7601,7 +7614,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7627,7 +7640,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>120</v>
@@ -7651,7 +7664,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>52</v>
@@ -7673,7 +7686,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>131</v>
@@ -7693,7 +7706,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7719,7 +7732,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>132</v>
@@ -7743,7 +7756,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>119</v>
@@ -7765,7 +7778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>148</v>
@@ -7785,7 +7798,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>47</v>
       </c>
@@ -7807,7 +7820,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>37257</v>
       </c>
@@ -7833,7 +7846,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>120</v>
@@ -7857,7 +7870,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>149</v>
@@ -7879,7 +7892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -7905,7 +7918,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>119</v>
@@ -7927,7 +7940,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -7947,7 +7960,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>37316</v>
       </c>
@@ -7971,7 +7984,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>37347</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -8017,7 +8030,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>37377</v>
       </c>
@@ -8043,7 +8056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>120</v>
@@ -8067,7 +8080,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>119</v>
@@ -8089,7 +8102,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>152</v>
@@ -8109,7 +8122,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>37408</v>
       </c>
@@ -8135,7 +8148,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>153</v>
@@ -8155,7 +8168,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>37438</v>
       </c>
@@ -8181,7 +8194,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -8203,7 +8216,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>159</v>
@@ -8223,7 +8236,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>37469</v>
       </c>
@@ -8249,7 +8262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>107</v>
@@ -8269,7 +8282,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>37500</v>
       </c>
@@ -8295,7 +8308,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>53</v>
@@ -8317,7 +8330,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>120</v>
@@ -8335,7 +8348,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>165</v>
@@ -8355,7 +8368,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>37530</v>
       </c>
@@ -8383,7 +8396,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>165</v>
@@ -8405,7 +8418,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>37561</v>
       </c>
@@ -8425,7 +8438,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>37591</v>
       </c>
@@ -8451,7 +8464,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>166</v>
@@ -8473,7 +8486,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>164</v>
       </c>
@@ -8495,7 +8508,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37622</v>
       </c>
@@ -8521,7 +8534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>37653</v>
       </c>
@@ -8547,7 +8560,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>52</v>
@@ -8569,7 +8582,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8591,7 +8604,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8613,7 +8626,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>37681</v>
       </c>
@@ -8637,7 +8650,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>37712</v>
       </c>
@@ -8657,7 +8670,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>37742</v>
       </c>
@@ -8683,7 +8696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>53</v>
@@ -8705,7 +8718,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>173</v>
@@ -8725,7 +8738,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>37773</v>
       </c>
@@ -8751,7 +8764,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>37803</v>
       </c>
@@ -8775,7 +8788,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>174</v>
@@ -8797,7 +8810,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>37834</v>
       </c>
@@ -8821,7 +8834,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>53</v>
@@ -8843,7 +8856,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>175</v>
@@ -8865,7 +8878,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>37865</v>
       </c>
@@ -8889,7 +8902,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>86</v>
@@ -8911,7 +8924,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>119</v>
@@ -8935,7 +8948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>176</v>
@@ -8957,7 +8970,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>37895</v>
       </c>
@@ -8981,7 +8994,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>37926</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>178</v>
@@ -9029,7 +9042,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>37956</v>
       </c>
@@ -9055,7 +9068,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>119</v>
@@ -9079,7 +9092,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>120</v>
@@ -9101,7 +9114,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>120</v>
@@ -9123,7 +9136,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>120</v>
@@ -9145,7 +9158,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9165,7 +9178,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>163</v>
       </c>
@@ -9187,7 +9200,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>37987</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38018</v>
       </c>
@@ -9239,7 +9252,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>120</v>
@@ -9263,7 +9276,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -9287,7 +9300,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>119</v>
@@ -9309,7 +9322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>186</v>
@@ -9329,7 +9342,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>38047</v>
       </c>
@@ -9353,7 +9366,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>38078</v>
       </c>
@@ -9379,7 +9392,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>188</v>
@@ -9399,7 +9412,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>38108</v>
       </c>
@@ -9427,7 +9440,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>38139</v>
       </c>
@@ -9451,7 +9464,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>38169</v>
       </c>
@@ -9477,7 +9490,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>192</v>
@@ -9499,7 +9512,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>38200</v>
       </c>
@@ -9525,7 +9538,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>199</v>
@@ -9545,7 +9558,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>38231</v>
       </c>
@@ -9571,7 +9584,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9593,7 +9606,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>200</v>
@@ -9615,7 +9628,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38261</v>
       </c>
@@ -9641,7 +9654,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -9661,7 +9674,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>122</v>
@@ -9683,7 +9696,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>120</v>
@@ -9703,7 +9716,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>120</v>
@@ -9725,7 +9738,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>201</v>
@@ -9747,7 +9760,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>38292</v>
       </c>
@@ -9775,7 +9788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>119</v>
@@ -9797,7 +9810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -9819,7 +9832,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>53</v>
@@ -9841,7 +9854,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>202</v>
@@ -9861,7 +9874,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>38322</v>
       </c>
@@ -9887,7 +9900,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>53</v>
@@ -9909,7 +9922,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>206</v>
@@ -9929,7 +9942,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="48"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="47" t="s">
         <v>162</v>
       </c>
@@ -9951,7 +9964,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>38353</v>
       </c>
@@ -9975,7 +9988,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>208</v>
@@ -9997,7 +10010,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>38384</v>
       </c>
@@ -10021,7 +10034,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>209</v>
@@ -10043,7 +10056,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>38412</v>
       </c>
@@ -10069,7 +10082,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>120</v>
@@ -10093,7 +10106,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>120</v>
@@ -10113,7 +10126,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>210</v>
@@ -10133,7 +10146,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>38443</v>
       </c>
@@ -10159,7 +10172,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10181,7 +10194,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>211</v>
@@ -10203,7 +10216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>38473</v>
       </c>
@@ -10229,7 +10242,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>212</v>
@@ -10249,7 +10262,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>38504</v>
       </c>
@@ -10275,7 +10288,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>213</v>
@@ -10295,7 +10308,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>38534</v>
       </c>
@@ -10321,7 +10334,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>120</v>
@@ -10345,7 +10358,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>188</v>
@@ -10367,7 +10380,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>38565</v>
       </c>
@@ -10395,7 +10408,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>53</v>
@@ -10417,7 +10430,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>216</v>
@@ -10437,7 +10450,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>38596</v>
       </c>
@@ -10461,7 +10474,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>38626</v>
       </c>
@@ -10489,7 +10502,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>120</v>
@@ -10511,7 +10524,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -10533,7 +10546,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>218</v>
@@ -10555,7 +10568,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>38657</v>
       </c>
@@ -10581,7 +10594,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>219</v>
@@ -10603,7 +10616,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>38687</v>
       </c>
@@ -10629,7 +10642,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>220</v>
@@ -10649,7 +10662,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="47" t="s">
         <v>161</v>
       </c>
@@ -10671,7 +10684,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>38718</v>
       </c>
@@ -10703,7 +10716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>223</v>
@@ -10723,7 +10736,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>38749</v>
       </c>
@@ -10747,7 +10760,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>227</v>
@@ -10767,7 +10780,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>38777</v>
       </c>
@@ -10793,7 +10806,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10817,7 +10830,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>228</v>
@@ -10837,7 +10850,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>38808</v>
       </c>
@@ -10863,7 +10876,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10885,7 +10898,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>229</v>
@@ -10905,7 +10918,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>38838</v>
       </c>
@@ -10929,7 +10942,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>38869</v>
       </c>
@@ -10955,7 +10968,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>120</v>
@@ -10979,7 +10992,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>200</v>
@@ -10999,7 +11012,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>38899</v>
       </c>
@@ -11025,7 +11038,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>231</v>
@@ -11045,7 +11058,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>38930</v>
       </c>
@@ -11071,7 +11084,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>120</v>
@@ -11095,7 +11108,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>232</v>
@@ -11115,7 +11128,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>38961</v>
       </c>
@@ -11141,7 +11154,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>233</v>
@@ -11161,7 +11174,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>38991</v>
       </c>
@@ -11187,7 +11200,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>235</v>
@@ -11209,7 +11222,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39022</v>
       </c>
@@ -11233,7 +11246,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>39052</v>
       </c>
@@ -11257,7 +11270,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="47" t="s">
         <v>160</v>
       </c>
@@ -11279,7 +11292,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>39083</v>
       </c>
@@ -11305,7 +11318,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39114</v>
       </c>
@@ -11329,7 +11342,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>39142</v>
       </c>
@@ -11355,7 +11368,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>224</v>
@@ -11375,7 +11388,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>240</v>
@@ -11395,7 +11408,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39173</v>
       </c>
@@ -11419,7 +11432,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>39203</v>
       </c>
@@ -11445,7 +11458,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -11465,7 +11478,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>53</v>
@@ -11487,7 +11500,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>242</v>
@@ -11507,7 +11520,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>39234</v>
       </c>
@@ -11531,7 +11544,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>39264</v>
       </c>
@@ -11555,7 +11568,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>39295</v>
       </c>
@@ -11581,7 +11594,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>245</v>
@@ -11601,7 +11614,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>39326</v>
       </c>
@@ -11627,7 +11640,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>252</v>
@@ -11647,7 +11660,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>39356</v>
       </c>
@@ -11673,7 +11686,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -11695,7 +11708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>253</v>
@@ -11715,7 +11728,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>39387</v>
       </c>
@@ -11739,7 +11752,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>39417</v>
       </c>
@@ -11763,7 +11776,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="47" t="s">
         <v>248</v>
       </c>
@@ -11785,7 +11798,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>39448</v>
       </c>
@@ -11809,7 +11822,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>39479</v>
       </c>
@@ -11831,7 +11844,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>257</v>
@@ -11851,7 +11864,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>39508</v>
       </c>
@@ -11879,7 +11892,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>53</v>
@@ -11899,7 +11912,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>259</v>
@@ -11919,7 +11932,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>39539</v>
       </c>
@@ -11943,7 +11956,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>39569</v>
       </c>
@@ -11967,7 +11980,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>261</v>
@@ -11987,7 +12000,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>39600</v>
       </c>
@@ -12011,7 +12024,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>39630</v>
       </c>
@@ -12035,7 +12048,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>263</v>
@@ -12055,7 +12068,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>39661</v>
       </c>
@@ -12079,7 +12092,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>39692</v>
       </c>
@@ -12105,7 +12118,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>39722</v>
       </c>
@@ -12131,7 +12144,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>39753</v>
       </c>
@@ -12157,7 +12170,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>39783</v>
       </c>
@@ -12183,7 +12196,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="47" t="s">
         <v>249</v>
       </c>
@@ -12205,7 +12218,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>39814</v>
       </c>
@@ -12229,7 +12242,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12253,7 +12266,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12277,7 +12290,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>39904</v>
       </c>
@@ -12301,7 +12314,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>39934</v>
       </c>
@@ -12327,7 +12340,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>273</v>
@@ -12347,7 +12360,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>39965</v>
       </c>
@@ -12373,7 +12386,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>274</v>
@@ -12393,7 +12406,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>39995</v>
       </c>
@@ -12417,7 +12430,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>40026</v>
       </c>
@@ -12441,7 +12454,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40057</v>
       </c>
@@ -12467,7 +12480,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>131</v>
@@ -12489,7 +12502,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40087</v>
       </c>
@@ -12515,7 +12528,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40118</v>
       </c>
@@ -12539,7 +12552,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40148</v>
       </c>
@@ -12563,7 +12576,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="47" t="s">
         <v>250</v>
       </c>
@@ -12585,7 +12598,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40179</v>
       </c>
@@ -12609,7 +12622,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40210</v>
       </c>
@@ -12633,7 +12646,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40238</v>
       </c>
@@ -12657,7 +12670,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>53</v>
@@ -12679,7 +12692,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>283</v>
@@ -12699,7 +12712,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40269</v>
       </c>
@@ -12725,7 +12738,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>284</v>
@@ -12745,7 +12758,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>40299</v>
       </c>
@@ -12769,7 +12782,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>285</v>
@@ -12789,7 +12802,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>40330</v>
       </c>
@@ -12813,7 +12826,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>40360</v>
       </c>
@@ -12839,7 +12852,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -12861,7 +12874,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>53</v>
@@ -12881,7 +12894,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>287</v>
@@ -12901,7 +12914,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>40391</v>
       </c>
@@ -12927,7 +12940,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -12949,7 +12962,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>288</v>
@@ -12969,7 +12982,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>40422</v>
       </c>
@@ -12995,7 +13008,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>57</v>
@@ -13017,7 +13030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>294</v>
@@ -13037,7 +13050,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40452</v>
       </c>
@@ -13063,7 +13076,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>295</v>
@@ -13083,7 +13096,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>40483</v>
       </c>
@@ -13109,7 +13122,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>53</v>
@@ -13131,7 +13144,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>296</v>
@@ -13151,7 +13164,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>40513</v>
       </c>
@@ -13177,7 +13190,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>96</v>
@@ -13197,7 +13210,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="47" t="s">
         <v>251</v>
       </c>
@@ -13219,7 +13232,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>40544</v>
       </c>
@@ -13243,7 +13256,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>303</v>
@@ -13263,7 +13276,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>40575</v>
       </c>
@@ -13287,7 +13300,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>40603</v>
       </c>
@@ -13313,7 +13326,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>57</v>
@@ -13335,7 +13348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>305</v>
@@ -13355,7 +13368,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>40634</v>
       </c>
@@ -13381,7 +13394,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>306</v>
@@ -13401,7 +13414,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>40664</v>
       </c>
@@ -13427,7 +13440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>307</v>
@@ -13447,7 +13460,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>40695</v>
       </c>
@@ -13471,7 +13484,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>40725</v>
       </c>
@@ -13495,7 +13508,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13521,7 +13534,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>311</v>
@@ -13541,7 +13554,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13567,7 +13580,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>57</v>
@@ -13589,7 +13602,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>313</v>
@@ -13609,7 +13622,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13635,7 +13648,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>40848</v>
       </c>
@@ -13661,7 +13674,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>224</v>
@@ -13681,7 +13694,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>315</v>
@@ -13701,7 +13714,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>40878</v>
       </c>
@@ -13725,7 +13738,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="47" t="s">
         <v>299</v>
       </c>
@@ -13747,7 +13760,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13773,7 +13786,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>320</v>
@@ -13793,7 +13806,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>40940</v>
       </c>
@@ -13823,7 +13836,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>321</v>
@@ -13843,7 +13856,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>40969</v>
       </c>
@@ -13867,7 +13880,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>41000</v>
       </c>
@@ -13893,7 +13906,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>57</v>
@@ -13915,7 +13928,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>325</v>
@@ -13935,7 +13948,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>41030</v>
       </c>
@@ -13959,7 +13972,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>41061</v>
       </c>
@@ -13983,7 +13996,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41091</v>
       </c>
@@ -14009,7 +14022,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14031,7 +14044,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>328</v>
@@ -14051,7 +14064,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>41122</v>
       </c>
@@ -14077,7 +14090,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>329</v>
@@ -14097,7 +14110,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>41153</v>
       </c>
@@ -14123,7 +14136,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -14143,7 +14156,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41183</v>
       </c>
@@ -14167,7 +14180,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>96</v>
@@ -14189,7 +14202,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>331</v>
@@ -14209,7 +14222,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>41214</v>
       </c>
@@ -14233,7 +14246,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>332</v>
@@ -14253,7 +14266,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41244</v>
       </c>
@@ -14279,7 +14292,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>96</v>
@@ -14299,7 +14312,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="47" t="s">
         <v>300</v>
       </c>
@@ -14321,7 +14334,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41275</v>
       </c>
@@ -14345,7 +14358,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>41306</v>
       </c>
@@ -14369,7 +14382,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -14395,7 +14408,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>122</v>
@@ -14419,7 +14432,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>340</v>
@@ -14439,7 +14452,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>41365</v>
       </c>
@@ -14465,7 +14478,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>341</v>
@@ -14487,7 +14500,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14515,7 +14528,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>122</v>
@@ -14539,7 +14552,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -14561,7 +14574,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -14587,7 +14600,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14613,7 +14626,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>344</v>
@@ -14635,7 +14648,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>41487</v>
       </c>
@@ -14661,7 +14674,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>345</v>
@@ -14681,7 +14694,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41518</v>
       </c>
@@ -14707,7 +14720,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>41548</v>
       </c>
@@ -14733,7 +14746,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>41579</v>
       </c>
@@ -14759,7 +14772,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>41609</v>
       </c>
@@ -14785,7 +14798,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>207</v>
@@ -14805,7 +14818,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>349</v>
@@ -14827,7 +14840,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="47" t="s">
         <v>301</v>
       </c>
@@ -14849,7 +14862,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>41640</v>
       </c>
@@ -14877,7 +14890,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>357</v>
@@ -14899,7 +14912,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>41671</v>
       </c>
@@ -14923,7 +14936,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>41699</v>
       </c>
@@ -14949,7 +14962,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>41730</v>
       </c>
@@ -14973,7 +14986,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14997,7 +15010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>57</v>
@@ -15021,7 +15034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -15041,7 +15054,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>41791</v>
       </c>
@@ -15067,7 +15080,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -15087,7 +15100,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>41821</v>
       </c>
@@ -15113,7 +15126,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>363</v>
@@ -15135,7 +15148,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>41852</v>
       </c>
@@ -15161,7 +15174,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>364</v>
@@ -15181,7 +15194,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41883</v>
       </c>
@@ -15207,7 +15220,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>312</v>
@@ -15231,7 +15244,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>365</v>
@@ -15251,7 +15264,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41913</v>
       </c>
@@ -15279,7 +15292,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>119</v>
@@ -15303,7 +15316,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>366</v>
@@ -15325,7 +15338,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>41944</v>
       </c>
@@ -15351,7 +15364,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -15373,7 +15386,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>207</v>
@@ -15393,7 +15406,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>207</v>
@@ -15413,7 +15426,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>152</v>
@@ -15433,7 +15446,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>41974</v>
       </c>
@@ -15457,7 +15470,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="47" t="s">
         <v>302</v>
       </c>
@@ -15479,7 +15492,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>42005</v>
       </c>
@@ -15503,7 +15516,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -15525,7 +15538,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>383</v>
@@ -15545,7 +15558,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>42036</v>
       </c>
@@ -15569,7 +15582,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -15595,7 +15608,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>53</v>
@@ -15617,7 +15630,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>385</v>
@@ -15637,7 +15650,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>42095</v>
       </c>
@@ -15663,7 +15676,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>387</v>
@@ -15683,7 +15696,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>42125</v>
       </c>
@@ -15709,7 +15722,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>386</v>
@@ -15729,7 +15742,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>390</v>
@@ -15749,7 +15762,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>42156</v>
       </c>
@@ -15775,7 +15788,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42186</v>
       </c>
@@ -15795,7 +15808,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>42217</v>
       </c>
@@ -15819,7 +15832,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42248</v>
       </c>
@@ -15845,7 +15858,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -15867,7 +15880,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>393</v>
@@ -15887,7 +15900,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>42278</v>
       </c>
@@ -15913,7 +15926,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>394</v>
@@ -15933,7 +15946,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42309</v>
       </c>
@@ -15959,7 +15972,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15981,7 +15994,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>53</v>
@@ -16003,7 +16016,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>207</v>
@@ -16023,7 +16036,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>396</v>
@@ -16043,7 +16056,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42339</v>
       </c>
@@ -16067,7 +16080,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="47" t="s">
         <v>376</v>
       </c>
@@ -16089,7 +16102,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>42370</v>
       </c>
@@ -16115,7 +16128,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>399</v>
@@ -16135,7 +16148,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42401</v>
       </c>
@@ -16159,7 +16172,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>400</v>
@@ -16181,7 +16194,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>42430</v>
       </c>
@@ -16209,7 +16222,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>401</v>
@@ -16231,7 +16244,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>42461</v>
       </c>
@@ -16255,7 +16268,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>53</v>
@@ -16275,7 +16288,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>402</v>
@@ -16297,7 +16310,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>42491</v>
       </c>
@@ -16321,7 +16334,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>42522</v>
       </c>
@@ -16345,7 +16358,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>404</v>
@@ -16367,7 +16380,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>42552</v>
       </c>
@@ -16391,7 +16404,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>285</v>
@@ -16413,7 +16426,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42583</v>
       </c>
@@ -16439,7 +16452,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -16461,7 +16474,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>405</v>
@@ -16481,7 +16494,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42614</v>
       </c>
@@ -16507,7 +16520,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>53</v>
@@ -16529,7 +16542,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>407</v>
@@ -16551,7 +16564,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42644</v>
       </c>
@@ -16577,7 +16590,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>53</v>
@@ -16599,7 +16612,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>224</v>
@@ -16617,7 +16630,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>294</v>
@@ -16637,7 +16650,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>42675</v>
       </c>
@@ -16663,7 +16676,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16685,7 +16698,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>409</v>
@@ -16705,7 +16718,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>42705</v>
       </c>
@@ -16731,7 +16744,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>120</v>
@@ -16753,7 +16766,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>410</v>
@@ -16773,7 +16786,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="47" t="s">
         <v>377</v>
       </c>
@@ -16795,7 +16808,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>42736</v>
       </c>
@@ -16821,7 +16834,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>120</v>
@@ -16845,7 +16858,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>412</v>
@@ -16867,7 +16880,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -16893,7 +16906,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>413</v>
@@ -16913,7 +16926,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -16943,7 +16956,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>120</v>
@@ -16967,7 +16980,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>120</v>
@@ -16991,7 +17004,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>81</v>
@@ -17011,7 +17024,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>42826</v>
       </c>
@@ -17037,7 +17050,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>52</v>
@@ -17059,7 +17072,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>42856</v>
       </c>
@@ -17085,7 +17098,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>415</v>
@@ -17105,7 +17118,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -17133,7 +17146,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -17157,7 +17170,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>120</v>
@@ -17183,7 +17196,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>53</v>
@@ -17207,7 +17220,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>416</v>
@@ -17229,7 +17242,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -17253,7 +17266,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>42979</v>
       </c>
@@ -17277,7 +17290,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -17299,7 +17312,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -17321,7 +17334,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>418</v>
@@ -17343,7 +17356,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -17367,7 +17380,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>53</v>
@@ -17391,7 +17404,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>120</v>
@@ -17413,7 +17426,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>419</v>
@@ -17435,7 +17448,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -17461,7 +17474,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>53</v>
@@ -17483,7 +17496,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43070</v>
       </c>
@@ -17509,7 +17522,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>120</v>
@@ -17533,7 +17546,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>207</v>
@@ -17553,7 +17566,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>224</v>
@@ -17573,7 +17586,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="47" t="s">
         <v>378</v>
       </c>
@@ -17595,7 +17608,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>43101</v>
       </c>
@@ -17621,7 +17634,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>120</v>
@@ -17645,7 +17658,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>43132</v>
       </c>
@@ -17669,7 +17682,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>52</v>
@@ -17691,7 +17704,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>43160</v>
       </c>
@@ -17717,7 +17730,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17739,7 +17752,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>43191</v>
       </c>
@@ -17767,7 +17780,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>120</v>
@@ -17789,7 +17802,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>57</v>
@@ -17811,7 +17824,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>423</v>
@@ -17833,7 +17846,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>43221</v>
       </c>
@@ -17859,7 +17872,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>53</v>
@@ -17885,7 +17898,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>120</v>
@@ -17907,7 +17920,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>425</v>
@@ -17927,7 +17940,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>43252</v>
       </c>
@@ -17953,7 +17966,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>426</v>
@@ -17973,7 +17986,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>43282</v>
       </c>
@@ -17999,7 +18012,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>120</v>
@@ -18025,7 +18038,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>427</v>
@@ -18045,7 +18058,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43313</v>
       </c>
@@ -18071,7 +18084,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>120</v>
@@ -18093,7 +18106,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>428</v>
@@ -18113,7 +18126,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43344</v>
       </c>
@@ -18139,7 +18152,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>86</v>
@@ -18161,7 +18174,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>120</v>
@@ -18183,7 +18196,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>429</v>
@@ -18205,7 +18218,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43374</v>
       </c>
@@ -18231,7 +18244,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>43405</v>
       </c>
@@ -18257,7 +18270,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>432</v>
@@ -18279,7 +18292,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -18305,7 +18318,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>53</v>
@@ -18327,7 +18340,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>207</v>
@@ -18347,7 +18360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>53</v>
@@ -18369,7 +18382,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>53</v>
@@ -18391,7 +18404,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>93</v>
@@ -18411,7 +18424,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="47" t="s">
         <v>379</v>
       </c>
@@ -18433,7 +18446,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>43466</v>
       </c>
@@ -18459,7 +18472,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>120</v>
@@ -18481,7 +18494,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>43497</v>
       </c>
@@ -18501,7 +18514,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43525</v>
       </c>
@@ -18527,7 +18540,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -18549,7 +18562,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>43556</v>
       </c>
@@ -18575,7 +18588,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>52</v>
@@ -18597,7 +18610,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>43586</v>
       </c>
@@ -18623,7 +18636,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>43617</v>
       </c>
@@ -18647,7 +18660,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>52</v>
@@ -18669,7 +18682,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>43647</v>
       </c>
@@ -18695,7 +18708,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>43678</v>
       </c>
@@ -18719,7 +18732,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>43709</v>
       </c>
@@ -18745,7 +18758,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>119</v>
@@ -18765,7 +18778,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>120</v>
@@ -18787,7 +18800,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>119</v>
@@ -18809,7 +18822,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>119</v>
@@ -18831,7 +18844,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>52</v>
@@ -18853,7 +18866,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>43739</v>
       </c>
@@ -18881,7 +18894,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>43770</v>
       </c>
@@ -18903,7 +18916,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43800</v>
       </c>
@@ -18929,7 +18942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18947,7 +18960,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="47" t="s">
         <v>380</v>
       </c>
@@ -18969,7 +18982,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>43831</v>
       </c>
@@ -18995,7 +19008,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>439</v>
@@ -19015,7 +19028,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>52</v>
@@ -19037,7 +19050,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>43862</v>
       </c>
@@ -19061,7 +19074,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>207</v>
@@ -19081,7 +19094,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>43891</v>
       </c>
@@ -19101,7 +19114,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>43922</v>
       </c>
@@ -19121,7 +19134,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>43952</v>
       </c>
@@ -19141,7 +19154,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>43983</v>
       </c>
@@ -19161,7 +19174,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44013</v>
       </c>
@@ -19181,7 +19194,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44044</v>
       </c>
@@ -19207,7 +19220,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>224</v>
@@ -19227,7 +19240,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>53</v>
@@ -19249,7 +19262,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44075</v>
       </c>
@@ -19275,7 +19288,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44105</v>
       </c>
@@ -19295,7 +19308,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44136</v>
       </c>
@@ -19321,7 +19334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44166</v>
       </c>
@@ -19341,7 +19354,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="47" t="s">
         <v>381</v>
       </c>
@@ -19363,7 +19376,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>44197</v>
       </c>
@@ -19389,7 +19402,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44228</v>
       </c>
@@ -19415,7 +19428,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>53</v>
@@ -19437,7 +19450,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>53</v>
@@ -19459,7 +19472,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44256</v>
       </c>
@@ -19479,7 +19492,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44287</v>
       </c>
@@ -19499,7 +19512,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>44317</v>
       </c>
@@ -19519,7 +19532,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>44348</v>
       </c>
@@ -19539,7 +19552,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>44378</v>
       </c>
@@ -19565,7 +19578,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44409</v>
       </c>
@@ -19589,7 +19602,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>44440</v>
       </c>
@@ -19611,7 +19624,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44470</v>
       </c>
@@ -19637,7 +19650,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>86</v>
@@ -19659,7 +19672,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20" t="s">
         <v>207</v>
@@ -19679,7 +19692,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>44501</v>
       </c>
@@ -19703,7 +19716,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44531</v>
       </c>
@@ -19723,7 +19736,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="47" t="s">
         <v>382</v>
       </c>
@@ -19745,7 +19758,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>44562</v>
       </c>
@@ -19771,7 +19784,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>53</v>
@@ -19793,7 +19806,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44593</v>
       </c>
@@ -19817,7 +19830,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>44621</v>
       </c>
@@ -19843,7 +19856,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>44652</v>
       </c>
@@ -19869,7 +19882,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>44682</v>
       </c>
@@ -19895,7 +19908,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>53</v>
@@ -19917,7 +19930,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>44713</v>
       </c>
@@ -19941,7 +19954,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>44743</v>
       </c>
@@ -19965,7 +19978,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>44774</v>
       </c>
@@ -19991,7 +20004,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>44805</v>
       </c>
@@ -20017,7 +20030,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>57</v>
@@ -20039,7 +20052,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>129</v>
@@ -20059,7 +20072,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>44835</v>
       </c>
@@ -20079,7 +20092,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>44866</v>
       </c>
@@ -20105,7 +20118,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>57</v>
@@ -20127,7 +20140,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
         <v>458</v>
@@ -20147,7 +20160,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="49"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>44896</v>
       </c>
@@ -20171,7 +20184,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>457</v>
@@ -20191,7 +20204,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="47" t="s">
         <v>450</v>
       </c>
@@ -20209,7 +20222,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <v>44927</v>
       </c>
@@ -20229,7 +20242,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <f>EDATE(A697,1)</f>
         <v>44958</v>
@@ -20250,9 +20263,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <f t="shared" ref="A699:A715" si="0">EDATE(A698,1)</f>
+        <f t="shared" ref="A699:A718" si="0">EDATE(A698,1)</f>
         <v>44986</v>
       </c>
       <c r="B699" s="20" t="s">
@@ -20277,7 +20290,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>53</v>
@@ -20299,7 +20312,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <f>EDATE(A699,1)</f>
         <v>45017</v>
@@ -20320,7 +20333,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="49"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -20347,7 +20360,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20" t="s">
         <v>53</v>
@@ -20369,7 +20382,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20" t="s">
         <v>57</v>
@@ -20391,7 +20404,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <f>EDATE(A702,1)</f>
         <v>45078</v>
@@ -20412,7 +20425,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -20439,7 +20452,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -20447,13 +20460,15 @@
       <c r="B707" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C707" s="13"/>
+      <c r="C707" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D707" s="39"/>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G707" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H707" s="39">
         <v>1</v>
@@ -20464,52 +20479,69 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
       </c>
-      <c r="B708" s="20"/>
-      <c r="C708" s="13"/>
+      <c r="B708" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C708" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H708" s="39"/>
+      <c r="G708" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H708" s="39">
+        <v>3</v>
+      </c>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
-      <c r="K708" s="20"/>
-    </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K708" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="B709" s="20"/>
-      <c r="C709" s="13"/>
+      <c r="B709" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C709" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D709" s="39"/>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
-      <c r="G709" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H709" s="39"/>
+      <c r="G709" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H709" s="39">
+        <v>1</v>
+      </c>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
-      <c r="K709" s="20"/>
-    </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A710" s="40">
-        <f t="shared" si="0"/>
-        <v>45231</v>
-      </c>
-      <c r="B710" s="20"/>
+      <c r="K709" s="49">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A710" s="40"/>
+      <c r="B710" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C710" s="13"/>
-      <c r="D710" s="39"/>
+      <c r="D710" s="39">
+        <v>2</v>
+      </c>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
       <c r="G710" s="13" t="str">
@@ -20519,14 +20551,15 @@
       <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
-      <c r="K710" s="20"/>
-    </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" s="40">
-        <f t="shared" si="0"/>
-        <v>45261</v>
-      </c>
-      <c r="B711" s="20"/>
+      <c r="K710" s="49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A711" s="40"/>
+      <c r="B711" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C711" s="13"/>
       <c r="D711" s="39"/>
       <c r="E711" s="9"/>
@@ -20535,38 +20568,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H711" s="39"/>
+      <c r="H711" s="39">
+        <v>1</v>
+      </c>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
-      <c r="K711" s="20"/>
-    </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K711" s="49">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <f t="shared" si="0"/>
-        <v>45292</v>
-      </c>
-      <c r="B712" s="20"/>
-      <c r="C712" s="13"/>
-      <c r="D712" s="39"/>
+        <f>EDATE(A709,1)</f>
+        <v>45231</v>
+      </c>
+      <c r="B712" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C712" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D712" s="39">
+        <v>1</v>
+      </c>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G712" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H712" s="39"/>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
-      <c r="K712" s="20"/>
-    </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A713" s="40">
-        <f t="shared" si="0"/>
-        <v>45323</v>
-      </c>
-      <c r="B713" s="20"/>
+      <c r="K712" s="49">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A713" s="40"/>
+      <c r="B713" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="C713" s="13"/>
-      <c r="D713" s="39"/>
+      <c r="D713" s="39">
+        <v>2</v>
+      </c>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
       <c r="G713" s="13" t="str">
@@ -20576,14 +20622,18 @@
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="20"/>
-    </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K713" s="49" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <f t="shared" si="0"/>
-        <v>45352</v>
-      </c>
-      <c r="B714" s="20"/>
+        <f>EDATE(A712,1)</f>
+        <v>45261</v>
+      </c>
+      <c r="B714" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="C714" s="13"/>
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
@@ -20595,12 +20645,14 @@
       <c r="H714" s="39"/>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20"/>
-    </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K714" s="20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20616,8 +20668,11 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40"/>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A716" s="40">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
       <c r="D716" s="39"/>
@@ -20632,8 +20687,11 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40"/>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A717" s="40">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
       <c r="D717" s="39"/>
@@ -20648,8 +20706,11 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40"/>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A718" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
       <c r="D718" s="39"/>
@@ -20664,7 +20725,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20680,7 +20741,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20696,7 +20757,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20712,7 +20773,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20728,7 +20789,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20744,7 +20805,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20760,7 +20821,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20776,7 +20837,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20792,7 +20853,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20808,7 +20869,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20824,7 +20885,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20840,7 +20901,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20856,7 +20917,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20872,7 +20933,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20888,7 +20949,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20904,7 +20965,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20920,7 +20981,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20936,7 +20997,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20952,7 +21013,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20968,7 +21029,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -20984,7 +21045,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -21000,7 +21061,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21016,7 +21077,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21032,21 +21093,69 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A742" s="50"/>
-      <c r="B742" s="15"/>
-      <c r="C742" s="41"/>
-      <c r="D742" s="42"/>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A742" s="40"/>
+      <c r="B742" s="20"/>
+      <c r="C742" s="13"/>
+      <c r="D742" s="39"/>
       <c r="E742" s="9"/>
-      <c r="F742" s="15"/>
-      <c r="G742" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H742" s="42"/>
+      <c r="F742" s="20"/>
+      <c r="G742" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H742" s="39"/>
       <c r="I742" s="9"/>
-      <c r="J742" s="12"/>
-      <c r="K742" s="15"/>
+      <c r="J742" s="11"/>
+      <c r="K742" s="20"/>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A743" s="40"/>
+      <c r="B743" s="20"/>
+      <c r="C743" s="13"/>
+      <c r="D743" s="39"/>
+      <c r="E743" s="9"/>
+      <c r="F743" s="20"/>
+      <c r="G743" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H743" s="39"/>
+      <c r="I743" s="9"/>
+      <c r="J743" s="11"/>
+      <c r="K743" s="20"/>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A744" s="40"/>
+      <c r="B744" s="20"/>
+      <c r="C744" s="13"/>
+      <c r="D744" s="39"/>
+      <c r="E744" s="9"/>
+      <c r="F744" s="20"/>
+      <c r="G744" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H744" s="39"/>
+      <c r="I744" s="9"/>
+      <c r="J744" s="11"/>
+      <c r="K744" s="20"/>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A745" s="50"/>
+      <c r="B745" s="15"/>
+      <c r="C745" s="41"/>
+      <c r="D745" s="42"/>
+      <c r="E745" s="9"/>
+      <c r="F745" s="15"/>
+      <c r="G745" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H745" s="42"/>
+      <c r="I745" s="9"/>
+      <c r="J745" s="12"/>
+      <c r="K745" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21063,10 +21172,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21089,7 +21198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -21097,21 +21206,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -21124,7 +21233,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21153,7 +21262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34.792000000000002</v>
       </c>
@@ -21183,17 +21292,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21214,7 +21323,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21241,7 +21350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21267,7 +21376,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21293,7 +21402,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21319,7 +21428,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21345,7 +21454,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21371,7 +21480,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21397,7 +21506,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21423,7 +21532,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21443,7 +21552,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21463,7 +21572,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21483,7 +21592,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21504,7 +21613,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21525,7 +21634,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21546,7 +21655,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21567,7 +21676,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21588,7 +21697,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21609,7 +21718,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21630,7 +21739,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21651,7 +21760,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21672,7 +21781,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21693,7 +21802,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21714,7 +21823,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21735,7 +21844,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21756,7 +21865,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21777,7 +21886,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21798,7 +21907,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21819,7 +21928,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21840,7 +21949,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21861,7 +21970,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21882,7 +21991,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21903,7 +22012,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21912,7 +22021,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21921,7 +22030,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21930,7 +22039,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21939,7 +22048,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21948,7 +22057,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21957,7 +22066,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21966,7 +22075,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21975,7 +22084,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21984,7 +22093,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21993,7 +22102,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -22002,7 +22111,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -22011,7 +22120,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -22020,7 +22129,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -22029,7 +22138,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -22038,7 +22147,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -22047,7 +22156,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -22056,7 +22165,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -22065,7 +22174,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -22074,7 +22183,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -22083,7 +22192,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -22092,7 +22201,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -22101,7 +22210,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -22110,7 +22219,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -22119,7 +22228,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22128,7 +22237,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22137,7 +22246,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22146,7 +22255,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22155,7 +22264,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22164,7 +22273,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
